--- a/head_words_excel/hpk_headwords_i.xlsx
+++ b/head_words_excel/hpk_headwords_i.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="163" sheetId="1" state="visible" r:id="rId2"/>
@@ -291,7 +291,7 @@
     <t>ingoa</t>
   </si>
   <si>
-    <t>inoingo</t>
+    <t>ingoingo</t>
   </si>
   <si>
     <t>Io</t>
@@ -541,7 +541,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A1:B4 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A1:B4 B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A1:B4 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="1" sqref="A1:B4 B13"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,8 +1070,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A1:B4 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="A1:B4 A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A1:B4 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,7 +1687,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1841,7 +1841,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1948,7 +1948,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
